--- a/data/evaluation/evaluation_Center_Summer_Corn.xlsx
+++ b/data/evaluation/evaluation_Center_Summer_Corn.xlsx
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2137.817485832349</v>
+        <v>2105.490167256985</v>
       </c>
       <c r="C4" t="n">
-        <v>8205212.153626526</v>
+        <v>8348619.007186856</v>
       </c>
       <c r="D4" t="n">
-        <v>2864.474149582524</v>
+        <v>2889.397689344071</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.09282877660905475</v>
+        <v>-0.1119287259338779</v>
       </c>
     </row>
     <row r="5">
